--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LTerm_CE" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="논리물리_장기손보_old" sheetId="1" r:id="rId6"/>
     <sheet name="CODE" sheetId="8" r:id="rId7"/>
     <sheet name="논리물리_KICS비율" sheetId="10" r:id="rId8"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTerm_CE!$A$1:$O$166</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="276">
   <si>
     <t>장기손보_현행추정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,10 +978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LTerm_Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PYBL_RSV</t>
   </si>
   <si>
@@ -1006,6 +1003,129 @@
   </si>
   <si>
     <t>PYBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험마진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험액 합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREM_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_RSV_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_PREM_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL_LOAN_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_RISK_DVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_995</t>
+  </si>
+  <si>
+    <t>Z_995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_85</t>
+  </si>
+  <si>
+    <t>Z_85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTerm_Oth_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기손보_요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTerm_SUMMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_RISK_FNL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장수</t>
+  </si>
+  <si>
+    <t>장수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장해질병</t>
+  </si>
+  <si>
+    <t>장해질병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재물</t>
+  </si>
+  <si>
+    <t>재물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지</t>
+  </si>
+  <si>
+    <t>해지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업비</t>
+  </si>
+  <si>
+    <t>사업비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대재해</t>
+  </si>
+  <si>
+    <t>대재해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1139,6 +1259,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1148,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1327,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14861,10 +14993,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14877,7 +15009,7 @@
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -14885,19 +15017,25 @@
         <v>52</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>202212</v>
       </c>
@@ -14915,6 +15053,12 @@
       </c>
       <c r="F2">
         <v>30</v>
+      </c>
+      <c r="G2">
+        <v>1.44</v>
+      </c>
+      <c r="H2">
+        <v>2.8069999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14927,8 +15071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14944,6 +15088,7 @@
     <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.625" customWidth="1"/>
     <col min="11" max="11" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1"/>
     <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
@@ -15181,7 +15326,7 @@
         <v>221</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -15192,49 +15337,39 @@
         <v>222</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="M13" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="S13" s="14"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="M14" s="6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="4" t="s">
@@ -15248,7 +15383,7 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="4" t="s">
@@ -15261,7 +15396,7 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F17" s="6"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
       <c r="I17" s="1"/>
@@ -15279,7 +15414,7 @@
         <v>223</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
@@ -15291,7 +15426,7 @@
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="2" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -15354,8 +15489,8 @@
       <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>46</v>
+      <c r="F21" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
@@ -15368,10 +15503,13 @@
       <c r="L21">
         <v>101</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="15"/>
+      <c r="M21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N21" s="15" t="str">
+        <f>M21&amp;M22&amp;M23&amp;M24&amp;M25&amp;M26&amp; M27&amp; M28&amp;M29&amp;M30&amp;M31&amp;M32&amp;M33&amp;M34&amp;M35&amp;M36</f>
+        <v>RSV_SUMPREM_SUMRE_RSV_SUMRE_PREM_SUMCL_LOAN_SUMLT_RMLT_RISK_DEADLT_RISK_LONGLT_RISK_OBSDISLT_RISK_PROPLT_RISK_CANCLT_RISK_BIZEXPLT_RISK_CATLT_RISK_SUMLT_RISK_DVSLT_RISK_FNL</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
@@ -15380,7 +15518,9 @@
       <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
       <c r="I22" s="3" t="s">
@@ -15392,8 +15532,8 @@
       <c r="L22">
         <v>102</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>111</v>
+      <c r="M22" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="N22" s="15"/>
     </row>
@@ -15404,7 +15544,9 @@
       <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="I23" s="4" t="s">
@@ -15416,8 +15558,8 @@
       <c r="L23">
         <v>103</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>112</v>
+      <c r="M23" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
@@ -15426,6 +15568,9 @@
       </c>
       <c r="D24" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
@@ -15438,6 +15583,9 @@
       <c r="L24">
         <v>104</v>
       </c>
+      <c r="M24" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
@@ -15445,6 +15593,9 @@
       </c>
       <c r="D25" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
@@ -15457,6 +15608,9 @@
       <c r="L25">
         <v>105</v>
       </c>
+      <c r="M25" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
@@ -15464,6 +15618,9 @@
       </c>
       <c r="D26" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
@@ -15476,6 +15633,9 @@
       <c r="L26">
         <v>106</v>
       </c>
+      <c r="M26" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
@@ -15483,6 +15643,9 @@
       </c>
       <c r="D27" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
@@ -15495,6 +15658,9 @@
       <c r="L27">
         <v>107</v>
       </c>
+      <c r="M27" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
@@ -15503,6 +15669,9 @@
       </c>
       <c r="D28" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
@@ -15515,6 +15684,9 @@
       <c r="L28">
         <v>108</v>
       </c>
+      <c r="M28" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -15523,6 +15695,9 @@
       </c>
       <c r="D29" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -15535,11 +15710,20 @@
       <c r="L29">
         <v>109</v>
       </c>
+      <c r="M29" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8"/>
+      <c r="M30" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -15547,6 +15731,9 @@
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
@@ -15556,6 +15743,9 @@
       <c r="K31" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="M31" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
@@ -15563,6 +15753,9 @@
       </c>
       <c r="D32" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
@@ -15572,13 +15765,19 @@
       <c r="K32" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
@@ -15588,50 +15787,71 @@
       <c r="K33" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I34" s="3" t="s">
         <v>78</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M34" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="F35" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="I35" s="4" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="F36" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>85</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M36" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>22</v>
       </c>
@@ -15645,7 +15865,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
@@ -15653,7 +15873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
@@ -15661,7 +15881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>26</v>
       </c>
@@ -15669,15 +15889,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
@@ -15685,7 +15905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
@@ -15693,46 +15913,52 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>201</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>202</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>203</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I49" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -17197,4 +17423,253 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>-0.25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LTerm_CE" sheetId="2" r:id="rId1"/>
     <sheet name="LTerm_RE" sheetId="9" r:id="rId2"/>
     <sheet name="LTerm_Cat_DT" sheetId="7" r:id="rId3"/>
     <sheet name="LTerm_Others" sheetId="6" r:id="rId4"/>
-    <sheet name="논리물리_장기손보 (2)" sheetId="11" r:id="rId5"/>
-    <sheet name="논리물리_장기손보_old" sheetId="1" r:id="rId6"/>
-    <sheet name="CODE" sheetId="8" r:id="rId7"/>
-    <sheet name="논리물리_KICS비율" sheetId="10" r:id="rId8"/>
-    <sheet name="상관계수" sheetId="12" r:id="rId9"/>
+    <sheet name="논리물리_장기손보" sheetId="11" r:id="rId5"/>
+    <sheet name="논리물리_일반손보" sheetId="14" r:id="rId6"/>
+    <sheet name="논리물리_장기손보_old" sheetId="1" r:id="rId7"/>
+    <sheet name="CODE" sheetId="8" r:id="rId8"/>
+    <sheet name="논리물리_KICS비율" sheetId="10" r:id="rId9"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LTerm_CE!$A$1:$O$166</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="505">
   <si>
     <t>장기손보_현행추정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,30 +980,18 @@
   </si>
   <si>
     <t>PYBL_RSV</t>
-  </si>
-  <si>
-    <t>PYBL_RSV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RCBL_RSV</t>
-  </si>
-  <si>
-    <t>RCBL_RSV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RCBL_PREM</t>
-  </si>
-  <si>
-    <t>RCBL_PREM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PYBL_PREM</t>
-  </si>
-  <si>
-    <t>PYBL_PREM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,10 +1023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LT_RM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LT_RISK_DVS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,14 +1030,893 @@
     <t>Z_995</t>
   </si>
   <si>
-    <t>Z_995</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Z_85</t>
   </si>
   <si>
-    <t>Z_85</t>
+    <t>장기손보_요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTerm_SUMMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_RISK_FNL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장수</t>
+  </si>
+  <si>
+    <t>장수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장해질병</t>
+  </si>
+  <si>
+    <t>장해질병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재물</t>
+  </si>
+  <si>
+    <t>재물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지</t>
+  </si>
+  <si>
+    <t>해지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업비</t>
+  </si>
+  <si>
+    <t>사업비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대재해</t>
+  </si>
+  <si>
+    <t>대재해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보_위험액_합계</t>
+  </si>
+  <si>
+    <t>일반손보_대재해위험액</t>
+  </si>
+  <si>
+    <t>일반손보_현행추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KICS_STPF_CD</t>
+  </si>
+  <si>
+    <t>STerm_Risk_Cat</t>
+  </si>
+  <si>
+    <t>REGION_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역구분 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 미래보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료납입예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료부채할인요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래 지급보험금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료납입예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급보험금비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해조사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지관리비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료부채합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별추산액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총량추산액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장래손해조사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구상채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비금부채할인요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비금부채합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOT_OS_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREM_LIAB_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREM_LIAB_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_BOND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_LIAB_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_LIAB_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_RTNRISK_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보_보유리스크율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원수수재손실증감액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유손실증감액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재수수료증감액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험계수적용보유리스크율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재전예상손실액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재후예상손실액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해율분포보유리스크율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유리스크율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보_보유익스포져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유리스크율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTNRISK_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISK_COEF_RTNRISK_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR_DIST_RTNRISK_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_RTN_EXPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동 원수경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동 수재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동 출재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동외 원수경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동외 수재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동외 출재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비례 원수경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비례 수재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비례 출재경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례연동 원수지급준비금</t>
+  </si>
+  <si>
+    <t>비례연동 수재지급준비금</t>
+  </si>
+  <si>
+    <t>비례연동 출재지급준비금</t>
+  </si>
+  <si>
+    <t>비례연동외 원수지급준비금</t>
+  </si>
+  <si>
+    <t>비례연동외 수재지급준비금</t>
+  </si>
+  <si>
+    <t>비례연동외 출재지급준비금</t>
+  </si>
+  <si>
+    <t>비비례 원수지급준비금</t>
+  </si>
+  <si>
+    <t>비비례 수재지급준비금</t>
+  </si>
+  <si>
+    <t>비비례 출재지급준비금</t>
+  </si>
+  <si>
+    <t>보유지급준비금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유리스크율_대재해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_OR_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_SU_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_RE_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_EX_OR_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_EX_RE_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_OR_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_SU_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_RE_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_EX_SU_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_OR_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_SU_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_RE_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTN_PYRSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT_RTNRISK_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTN_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_OR_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_SU_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLN_RE_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLNEX_OR_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLNEX_RE_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPLNEX_SU_ERPRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_FEE_IDAMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORSU_LSS_IDAMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTN_LSS_IDAMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_BF_EX_LSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_AF_EX_LSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1*(2+3)+5+6-7+9) / (2+3+5+6+9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2+3)*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((6+7)*8+9)*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+5+10+11+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MAX(14+15,16)+17-18+19-20)*21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-3)/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX(4,8)&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_SCH_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP_PAID_LOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNERN_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAID_LOSS_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNT_MNG_FEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보_재보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_EX_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 기대 미래보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 유지관리비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 손해조사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 보험료부채 보험미지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 지급보험금비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 보험료납입예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 미경과보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 미래 지급보험금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 보험료부채할인요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 보험료부채 보험미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 기타비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 개별추산액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 IBNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 총량추산액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 장래손해조사비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 준비금부채 보험미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 준비금부채 보험미지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 준비금부채할인요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_RCBL_PREM</t>
+  </si>
+  <si>
+    <t>RE_PAY_SCH_PREM</t>
+  </si>
+  <si>
+    <t>RE_PREM_LIAB_DC</t>
+  </si>
+  <si>
+    <t>RE_EXP_PAID_LOSS</t>
+  </si>
+  <si>
+    <t>RE_UNERN_PREM</t>
+  </si>
+  <si>
+    <t>RE_PAID_LOSS_RTO</t>
+  </si>
+  <si>
+    <t>RE_PYBL_PREM</t>
+  </si>
+  <si>
+    <t>RE_MNT_MNG_FEE</t>
+  </si>
+  <si>
+    <t>RE_ETC_EXP</t>
+  </si>
+  <si>
+    <t>RE_TOT_OS_AMT</t>
+  </si>
+  <si>
+    <t>RE_RCBL_RSV</t>
+  </si>
+  <si>
+    <t>RE_PYBL_RSV</t>
+  </si>
+  <si>
+    <t>RE_RSV_LIAB_DC</t>
+  </si>
+  <si>
+    <t>출재 보험료부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_PREM_LIAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_RSV_LIAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 준비금부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2+3)*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((6+7)*8+9)*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+5+10+11+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MAX(14+15,16)+17-18+19)+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_SUMMARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_CE_SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행추정부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRMRSV_RSK_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험가격준비금위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPTDST_RSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대재해위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_RISK_FINAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STerm_Risk_CAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반손보_대재해위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_APPL_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재반영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유가입금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTN_JOIN_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAT_RTN_RTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSK_COEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비례차감전대재해위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_BF_CAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비비례회수가능금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_RISK_CAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPP_RECV_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1+2)*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21을 SUM SORT?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KICS_STGRP_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KICS 일반그룹코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ_RSK_COEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_RSK_COEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험가격위험발생가능최대손실액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비금위험발생가능최대손실액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험가격위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비금위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_RSV_RISK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_PREM_RSV_RISK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_PREM_RISK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PREM_RISK_MAX_LSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV_RISK_MAX_LSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C: (2+3)*1+(9-10)*1.5+5+6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C: (12+13)*1+(18-19)*1.5+15+16-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX(기본위험+(합산-기준합산)*0.5, 기본*0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준서 179P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6이 0이면 2*4, 아니면 MIN(2*4,6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7이 0이면 3*5, 아니면 MIN(3*5,7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQRT(8^2+9^2+2*0.25*8*9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQRT(4^2+5^2+2*0.25*4*5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로직으로 보험미수금, 미지급금 구현..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1060,72 +1924,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장기손보_요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTerm_SUMMARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LT_RISK_FNL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장수</t>
-  </si>
-  <si>
-    <t>장수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장해질병</t>
-  </si>
-  <si>
-    <t>장해질병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재물</t>
-  </si>
-  <si>
-    <t>재물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해지</t>
-  </si>
-  <si>
-    <t>해지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업비</t>
-  </si>
-  <si>
-    <t>사업비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대재해</t>
-  </si>
-  <si>
-    <t>대재해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
+    <t>RE_RCBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_RCBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_PYBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_PYBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출재 준비금부채 보험미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원수 준비금부채 보험미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원수 보험료부채 보험미수금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원수 준비금부채 보험미지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원수 보험료부채 보험미지급금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_RCBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_RCBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_PYBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_PYBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU_RCBL_RSV</t>
+  </si>
+  <si>
+    <t>SU_RCBL_PREM</t>
+  </si>
+  <si>
+    <t>SU_PYBL_RSV</t>
+  </si>
+  <si>
+    <t>SU_PYBL_PREM</t>
+  </si>
+  <si>
+    <t>수재 준비금부채 보험미수금</t>
+  </si>
+  <si>
+    <t>수재 보험료부채 보험미수금</t>
+  </si>
+  <si>
+    <t>수재 준비금부채 보험미지급금</t>
+  </si>
+  <si>
+    <t>수재 보험료부채 보험미지급금</t>
+  </si>
+  <si>
+    <t>OR_RCBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_RCBL_PREM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_PYBL_RSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR_PYBL_PREM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,9 +2020,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1182,14 +2066,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="KoPub돋움체 Medium"/>
+      <family val="1"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,8 +2091,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1268,16 +2163,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,21 +2234,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8971,6 +9902,255 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4">
+        <v>-0.25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14993,10 +16173,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15007,9 +16187,17 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -15017,25 +16205,49 @@
         <v>52</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>237</v>
+        <v>501</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>254</v>
+        <v>493</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>202212</v>
       </c>
@@ -15046,19 +16258,43 @@
         <v>100</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>70</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="P2">
         <v>1.44</v>
-      </c>
-      <c r="H2">
-        <v>2.8069999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15069,896 +16305,857 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S50"/>
+  <dimension ref="B2:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" customWidth="1"/>
-    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="K20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E21">
+        <v>101</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="J21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>103</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26">
+        <v>106</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27">
+        <v>107</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="K27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28">
+        <v>108</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="6" t="s">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29">
+        <v>109</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="6" t="s">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M12" s="6" t="s">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F17" s="17"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
-      <c r="L17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="3" t="s">
+      <c r="K34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21">
-        <v>101</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N21" s="15" t="str">
-        <f>M21&amp;M22&amp;M23&amp;M24&amp;M25&amp;M26&amp; M27&amp; M28&amp;M29&amp;M30&amp;M31&amp;M32&amp;M33&amp;M34&amp;M35&amp;M36</f>
-        <v>RSV_SUMPREM_SUMRE_RSV_SUMRE_PREM_SUMCL_LOAN_SUMLT_RMLT_RISK_DEADLT_RISK_LONGLT_RISK_OBSDISLT_RISK_PROPLT_RISK_CANCLT_RISK_BIZEXPLT_RISK_CATLT_RISK_SUMLT_RISK_DVSLT_RISK_FNL</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22">
-        <v>102</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23">
-        <v>103</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24">
-        <v>104</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25">
-        <v>105</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26">
-        <v>106</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L27">
-        <v>107</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28">
-        <v>108</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L29">
-        <v>109</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="M30" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>253</v>
+        <v>492</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2.8069999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15969,6 +17166,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I8">
+        <f>I7+1</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9">
+        <f t="shared" ref="I9:I12" si="0">I8+1</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10">
+        <f>E9+1</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" ref="A11:A29" si="1">A10+1</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E28" si="2">E10+1</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38">
+        <f>E37+1</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" ref="A39:A43" si="3">A38+1</f>
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E44" si="4">E38+1</f>
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>465</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>467</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>A51+1</f>
+        <v>3</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" ref="A53:A71" si="5">A52+1</f>
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55">
+        <f>E54+1</f>
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E62" si="6">E55+1</f>
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" t="s">
+        <v>365</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>A57+1</f>
+        <v>9</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M34"/>
   <sheetViews>
@@ -16604,7 +19328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I46"/>
   <sheetViews>
@@ -17272,7 +19996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F16"/>
   <sheetViews>
@@ -17423,253 +20147,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>B4</f>
-        <v>-0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.25</v>
-      </c>
-      <c r="H3">
-        <v>0.25</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4">
-        <v>-0.25</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.25</v>
-      </c>
-      <c r="J5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
-      <c r="J6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>0.25</v>
-      </c>
-      <c r="J7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.25</v>
-      </c>
-      <c r="J8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.25</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <v>0.25</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="981">
   <si>
     <t>결산년월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3606,52 +3606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지급여력금액으로 불인정하는 항목</t>
-  </si>
-  <si>
-    <t>보완자본으로 재뷴류하는 항목</t>
-  </si>
-  <si>
-    <t>기본자본</t>
-  </si>
-  <si>
-    <t>보완자본</t>
-  </si>
-  <si>
-    <t>지급여력기준금액</t>
-  </si>
-  <si>
-    <t>기본요구자본</t>
-  </si>
-  <si>
-    <t>분산효과</t>
-  </si>
-  <si>
-    <t>장기손해보험위험액</t>
-  </si>
-  <si>
-    <t>시장위험액</t>
-  </si>
-  <si>
-    <t>신용위험액</t>
-  </si>
-  <si>
-    <t>운영위험액</t>
-  </si>
-  <si>
-    <t>법인세조정액</t>
-  </si>
-  <si>
-    <t>기타요구자본</t>
-  </si>
-  <si>
-    <t>지급여력비율</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1. 지급여력금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PRINT_ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3661,6 +3615,61 @@
   </si>
   <si>
     <t>PRINT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 지급여력금액 (Ⅳ + Ⅴ)</t>
+  </si>
+  <si>
+    <t>' Ⅰ. 건전성감독기준 재무상태표 상의 순자산</t>
+  </si>
+  <si>
+    <t>' Ⅱ. 지급여력금액으로 불인정하는 항목</t>
+  </si>
+  <si>
+    <t>' Ⅲ. 보완자본으로 재뷴류하는 항목</t>
+  </si>
+  <si>
+    <t>' Ⅳ. 기본자본</t>
+  </si>
+  <si>
+    <t>' Ⅴ. 보완자본</t>
+  </si>
+  <si>
+    <t>나. 지급여력기준금액 (Ⅰ-Ⅱ+Ⅲ)</t>
+  </si>
+  <si>
+    <t>' Ⅰ. 기본요구자본</t>
+  </si>
+  <si>
+    <t>''''' - 분산효과 : (1+2+3+4+5) - Ⅰ</t>
+  </si>
+  <si>
+    <t>'''  1. 장기손해보험위험액</t>
+  </si>
+  <si>
+    <t>'''        2. 일반손해보험위험액</t>
+  </si>
+  <si>
+    <t>'''       3. 시장위험액</t>
+  </si>
+  <si>
+    <t> '''      4. 신용위험액</t>
+  </si>
+  <si>
+    <t>  '''     5. 운영위험액</t>
+  </si>
+  <si>
+    <t>'    Ⅱ. 법인세조정액</t>
+  </si>
+  <si>
+    <t>'   Ⅲ. 기타요구자본</t>
+  </si>
+  <si>
+    <t>다. 지급여력비율 : 가 ÷ 나 × 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ⅲ. 기타요구자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3856,7 +3865,7 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3940,6 +3949,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4298,7 +4313,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4306,7 +4321,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4318,13 +4333,13 @@
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4337,8 +4352,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>974</v>
+      <c r="D2" s="28" t="s">
+        <v>963</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -4354,8 +4369,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>941</v>
+      <c r="D3" s="28" t="s">
+        <v>964</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -4371,8 +4386,8 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>960</v>
+      <c r="D4" s="28" t="s">
+        <v>965</v>
       </c>
       <c r="E4">
         <v>40000.300000000003</v>
@@ -4388,8 +4403,8 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>961</v>
+      <c r="D5" s="28" t="s">
+        <v>966</v>
       </c>
       <c r="E5">
         <v>500000.1</v>
@@ -4405,8 +4420,8 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>962</v>
+      <c r="D6" s="28" t="s">
+        <v>967</v>
       </c>
       <c r="E6">
         <v>677777.33</v>
@@ -4422,8 +4437,8 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>963</v>
+      <c r="D7" s="28" t="s">
+        <v>968</v>
       </c>
       <c r="E7">
         <v>45555.33</v>
@@ -4439,8 +4454,8 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>964</v>
+      <c r="D8" s="28" t="s">
+        <v>969</v>
       </c>
       <c r="E8">
         <v>1122.3330000000001</v>
@@ -4456,8 +4471,8 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>965</v>
+      <c r="D9" s="28" t="s">
+        <v>970</v>
       </c>
       <c r="E9">
         <v>125554.111</v>
@@ -4473,8 +4488,8 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>966</v>
+      <c r="D10" s="28" t="s">
+        <v>971</v>
       </c>
       <c r="E10">
         <v>55533.110999999997</v>
@@ -4490,8 +4505,8 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>967</v>
+      <c r="D11" s="28" t="s">
+        <v>972</v>
       </c>
       <c r="E11">
         <v>123</v>
@@ -4507,8 +4522,8 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>857</v>
+      <c r="D12" s="28" t="s">
+        <v>973</v>
       </c>
       <c r="E12">
         <v>2525</v>
@@ -4524,8 +4539,8 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>968</v>
+      <c r="D13" s="28" t="s">
+        <v>974</v>
       </c>
       <c r="E13">
         <v>255</v>
@@ -4541,8 +4556,8 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>969</v>
+      <c r="D14" s="28" t="s">
+        <v>975</v>
       </c>
       <c r="E14">
         <v>2125</v>
@@ -4558,8 +4573,8 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>970</v>
+      <c r="D15" s="28" t="s">
+        <v>976</v>
       </c>
       <c r="E15">
         <v>1235</v>
@@ -4575,8 +4590,8 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>971</v>
+      <c r="D16" s="28" t="s">
+        <v>977</v>
       </c>
       <c r="E16">
         <v>123124</v>
@@ -4592,8 +4607,8 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>972</v>
+      <c r="D17" s="28" t="s">
+        <v>978</v>
       </c>
       <c r="E17">
         <v>154778</v>
@@ -4609,8 +4624,8 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>973</v>
+      <c r="D18" s="28" t="s">
+        <v>979</v>
       </c>
       <c r="E18">
         <v>113.54</v>
@@ -4626,8 +4641,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>974</v>
+      <c r="D19" s="28" t="s">
+        <v>963</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -4643,8 +4658,8 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>941</v>
+      <c r="D20" s="28" t="s">
+        <v>964</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -4660,8 +4675,8 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>960</v>
+      <c r="D21" s="28" t="s">
+        <v>965</v>
       </c>
       <c r="E21">
         <v>40000.300000000003</v>
@@ -4677,8 +4692,8 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
-        <v>961</v>
+      <c r="D22" s="28" t="s">
+        <v>966</v>
       </c>
       <c r="E22">
         <v>500000.1</v>
@@ -4694,8 +4709,8 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>962</v>
+      <c r="D23" s="28" t="s">
+        <v>967</v>
       </c>
       <c r="E23">
         <v>677777.33</v>
@@ -4711,8 +4726,8 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>963</v>
+      <c r="D24" s="28" t="s">
+        <v>968</v>
       </c>
       <c r="E24">
         <v>45555.33</v>
@@ -4728,8 +4743,8 @@
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>964</v>
+      <c r="D25" s="28" t="s">
+        <v>969</v>
       </c>
       <c r="E25">
         <v>1122.3330000000001</v>
@@ -4745,8 +4760,8 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>965</v>
+      <c r="D26" s="28" t="s">
+        <v>970</v>
       </c>
       <c r="E26">
         <v>125554.111</v>
@@ -4762,8 +4777,8 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>966</v>
+      <c r="D27" s="28" t="s">
+        <v>971</v>
       </c>
       <c r="E27">
         <v>55533.110999999997</v>
@@ -4779,8 +4794,8 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>967</v>
+      <c r="D28" s="28" t="s">
+        <v>972</v>
       </c>
       <c r="E28">
         <v>123</v>
@@ -4796,8 +4811,8 @@
       <c r="C29">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
-        <v>857</v>
+      <c r="D29" s="28" t="s">
+        <v>973</v>
       </c>
       <c r="E29">
         <v>2525</v>
@@ -4813,8 +4828,8 @@
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30" t="s">
-        <v>968</v>
+      <c r="D30" s="28" t="s">
+        <v>974</v>
       </c>
       <c r="E30">
         <v>255</v>
@@ -4830,8 +4845,8 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>969</v>
+      <c r="D31" s="28" t="s">
+        <v>975</v>
       </c>
       <c r="E31">
         <v>2125</v>
@@ -4847,8 +4862,8 @@
       <c r="C32">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>970</v>
+      <c r="D32" s="28" t="s">
+        <v>976</v>
       </c>
       <c r="E32">
         <v>1235</v>
@@ -4864,8 +4879,8 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>971</v>
+      <c r="D33" s="28" t="s">
+        <v>977</v>
       </c>
       <c r="E33">
         <v>123124</v>
@@ -4881,8 +4896,8 @@
       <c r="C34">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>972</v>
+      <c r="D34" s="29" t="s">
+        <v>980</v>
       </c>
       <c r="E34">
         <v>154778</v>
@@ -4898,8 +4913,8 @@
       <c r="C35">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
-        <v>973</v>
+      <c r="D35" s="28" t="s">
+        <v>979</v>
       </c>
       <c r="E35">
         <v>100.54</v>

--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="15" r:id="rId1"/>
@@ -16,22 +16,24 @@
     <sheet name="STerm_CE_DT" sheetId="18" r:id="rId7"/>
     <sheet name="STerm_RE_DT" sheetId="19" r:id="rId8"/>
     <sheet name="STerm_RTNRISK_DT" sheetId="20" r:id="rId9"/>
-    <sheet name="KICS_RATIO" sheetId="38" r:id="rId10"/>
-    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId11"/>
-    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId12"/>
-    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId13"/>
-    <sheet name="ppt_장기손보" sheetId="21" r:id="rId14"/>
-    <sheet name="상관계수" sheetId="12" r:id="rId15"/>
-    <sheet name="시장위험액" sheetId="25" r:id="rId16"/>
-    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId17"/>
-    <sheet name="신용위험액" sheetId="28" r:id="rId18"/>
-    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId19"/>
-    <sheet name="운영위험액" sheetId="29" r:id="rId20"/>
+    <sheet name="OPERATION_DT" sheetId="39" r:id="rId10"/>
+    <sheet name="운영위험액" sheetId="29" r:id="rId11"/>
+    <sheet name="KICS_RATIO" sheetId="38" r:id="rId12"/>
+    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId13"/>
+    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId14"/>
+    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId15"/>
+    <sheet name="ppt_장기손보" sheetId="21" r:id="rId16"/>
+    <sheet name="시장위험액" sheetId="25" r:id="rId17"/>
+    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId18"/>
+    <sheet name="신용위험액" sheetId="28" r:id="rId19"/>
+    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId20"/>
     <sheet name="KICS비율" sheetId="34" r:id="rId21"/>
     <sheet name="PPT_가용자본" sheetId="37" r:id="rId22"/>
     <sheet name="요구자본" sheetId="31" r:id="rId23"/>
     <sheet name="PPT_요구자본" sheetId="33" r:id="rId24"/>
     <sheet name="PPT_KICS비율" sheetId="36" r:id="rId25"/>
+    <sheet name="비율산출" sheetId="40" r:id="rId26"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTerm_CF!$A$1:$O$331</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1007">
   <si>
     <t>결산년월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3670,6 +3672,92 @@
   </si>
   <si>
     <t xml:space="preserve">   Ⅲ. 기타요구자본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPER_PROD_CD</t>
+  </si>
+  <si>
+    <t>OPER_EXPO_CD</t>
+  </si>
+  <si>
+    <t>OPER_RISK_COEF</t>
+  </si>
+  <si>
+    <t>OPER_RISK_EXPO_AMT</t>
+  </si>
+  <si>
+    <t>   Ⅰ. 건전성감독기준 재무상태표 상의 순자산</t>
+  </si>
+  <si>
+    <t>   Ⅱ. 지급여력금액으로 불인정하는 항목</t>
+  </si>
+  <si>
+    <t>   Ⅲ. 보완자본으로 재뷴류하는 항목</t>
+  </si>
+  <si>
+    <t>   Ⅳ. 기본자본</t>
+  </si>
+  <si>
+    <t>   Ⅴ. 보완자본</t>
+  </si>
+  <si>
+    <t>   Ⅰ. 기본요구자본</t>
+  </si>
+  <si>
+    <t>       - 분산효과 : (1+2+3+4+5) - Ⅰ</t>
+  </si>
+  <si>
+    <t>       1. 장기손해보험위험액</t>
+  </si>
+  <si>
+    <t>       2. 일반손해보험위험액</t>
+  </si>
+  <si>
+    <t>       3. 시장위험액</t>
+  </si>
+  <si>
+    <t>       4. 신용위험액</t>
+  </si>
+  <si>
+    <t>       5. 운영위험액</t>
+  </si>
+  <si>
+    <t>   Ⅱ. 법인세조정액</t>
+  </si>
+  <si>
+    <t>   Ⅲ. 기타요구자본</t>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준년월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교년월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3677,11 +3765,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3763,8 +3852,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3789,8 +3884,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3835,8 +3936,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA39485"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA39485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA39485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA39485"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA39485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA39485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA39485"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA39485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA39485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA39485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA39485"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA39485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3864,8 +4045,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3956,8 +4140,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="5" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="5" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="5" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="5" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
+    <cellStyle name="쉼표 [0]" xfId="12" builtinId="6"/>
     <cellStyle name="쉼표 [0] 2" xfId="6"/>
     <cellStyle name="쉼표 [0] 2 3" xfId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4310,9 +4534,345 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202212</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>9228667298</v>
+      </c>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>202212</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F3" s="41">
+        <v>1958436755</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202212</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202212</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="41">
+        <v>2402181945</v>
+      </c>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>202212</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F6" s="41">
+        <v>301663699</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202212</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202212</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="41">
+        <v>45502397</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>202212</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F9" s="41">
+        <v>858914099</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -4926,7 +5486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L94"/>
   <sheetViews>
@@ -7210,7 +7770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -9819,7 +10379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -11777,7 +12337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -12937,256 +13497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>B4</f>
-        <v>-0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.25</v>
-      </c>
-      <c r="H3">
-        <v>0.25</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4">
-        <v>-0.25</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <v>0.25</v>
-      </c>
-      <c r="J5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
-      <c r="J6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>0.25</v>
-      </c>
-      <c r="J7">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.25</v>
-      </c>
-      <c r="J8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.25</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <v>0.25</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -13879,7 +14190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -14776,7 +15087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
@@ -15302,12 +15613,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16166,162 +16516,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>202112</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19842,6 +20036,724 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" s="34">
+        <f>C6+C7</f>
+        <v>2488</v>
+      </c>
+      <c r="D2" s="34">
+        <f>D6+D7</f>
+        <v>2406</v>
+      </c>
+      <c r="E2" s="35">
+        <f>C2-D2</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="36">
+        <v>2061</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="37">
+        <f t="shared" ref="E3:E18" si="0">C3-D3</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C5" s="36">
+        <v>331</v>
+      </c>
+      <c r="D5" s="36">
+        <v>655</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="0"/>
+        <v>-324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1729</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1352</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C7" s="36">
+        <v>759</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1054</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="0"/>
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C8" s="36">
+        <f>C9-C16+C17</f>
+        <v>1611.2621183684114</v>
+      </c>
+      <c r="D8" s="36">
+        <f>D9-D16+D17</f>
+        <v>2115.2789752463891</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>-504.01685687797772</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="array" ref="G8">SQRT(MMULT(MMULT(TRANSPOSE(C11:C14),G11:J14),C11:C14))</f>
+        <v>1957.2621183684112</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="array" ref="H8">SQRT(MMULT(MMULT(TRANSPOSE(D11:D14),G11:J14),D11:D14))</f>
+        <v>2380.2789752463891</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C9" s="36">
+        <f>G8+C15</f>
+        <v>2071.2621183684114</v>
+      </c>
+      <c r="D9" s="36">
+        <f>H8+D15</f>
+        <v>2492.2789752463891</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="0"/>
+        <v>-421.01685687797772</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C10" s="36">
+        <f>SUM(C11:C15)-C9</f>
+        <v>735.73788163158861</v>
+      </c>
+      <c r="D10" s="36">
+        <f>SUM(D11:D15)-D9</f>
+        <v>991.72102475361089</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="0"/>
+        <v>-255.98314312202228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1419</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1426</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C12" s="36">
+        <v>65</v>
+      </c>
+      <c r="D12" s="36">
+        <v>114</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C13" s="36">
+        <v>645</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1188</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="0"/>
+        <v>-543</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C14" s="36">
+        <v>564</v>
+      </c>
+      <c r="D14" s="36">
+        <v>644</v>
+      </c>
+      <c r="E14" s="37">
+        <f t="shared" si="0"/>
+        <v>-80</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <v>0.25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C15" s="36">
+        <v>114</v>
+      </c>
+      <c r="D15" s="36">
+        <v>112</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C16" s="36">
+        <v>460</v>
+      </c>
+      <c r="D16" s="36">
+        <v>377</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="C18" s="39">
+        <f>C2/C8*100</f>
+        <v>154.41311327541086</v>
+      </c>
+      <c r="D18" s="39">
+        <f>D2/D8*100</f>
+        <v>113.74386207000178</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="0"/>
+        <v>40.669251205409083</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>-0.25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="J7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="36">
+        <v>1426</v>
+      </c>
+      <c r="H14" s="40">
+        <f>B14*G14+C14*G14+D14*G14+E14*G14</f>
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="36">
+        <v>114</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" ref="H15:H17" si="0">B15*G15+C15*G15+D15*G15+E15*G15</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1188</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" si="0"/>
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>644</v>
+      </c>
+      <c r="H17" s="40">
+        <f t="shared" si="0"/>
+        <v>1127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="17" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="15" r:id="rId1"/>
@@ -17,23 +17,23 @@
     <sheet name="STerm_RE_DT" sheetId="19" r:id="rId8"/>
     <sheet name="STerm_RTNRISK_DT" sheetId="20" r:id="rId9"/>
     <sheet name="OPERATION_DT" sheetId="39" r:id="rId10"/>
-    <sheet name="운영위험액" sheetId="29" r:id="rId11"/>
-    <sheet name="KICS_RATIO" sheetId="38" r:id="rId12"/>
-    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId13"/>
-    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId14"/>
-    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId15"/>
-    <sheet name="ppt_장기손보" sheetId="21" r:id="rId16"/>
-    <sheet name="시장위험액" sheetId="25" r:id="rId17"/>
-    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId18"/>
-    <sheet name="신용위험액" sheetId="28" r:id="rId19"/>
-    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId20"/>
-    <sheet name="KICS비율" sheetId="34" r:id="rId21"/>
-    <sheet name="PPT_가용자본" sheetId="37" r:id="rId22"/>
-    <sheet name="요구자본" sheetId="31" r:id="rId23"/>
-    <sheet name="PPT_요구자본" sheetId="33" r:id="rId24"/>
-    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId25"/>
-    <sheet name="비율산출" sheetId="40" r:id="rId26"/>
-    <sheet name="상관계수" sheetId="12" r:id="rId27"/>
+    <sheet name="KICS_RATIO" sheetId="38" r:id="rId11"/>
+    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId12"/>
+    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId13"/>
+    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId14"/>
+    <sheet name="ppt_장기손보" sheetId="21" r:id="rId15"/>
+    <sheet name="시장위험액" sheetId="25" r:id="rId16"/>
+    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId17"/>
+    <sheet name="신용위험액" sheetId="28" r:id="rId18"/>
+    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId19"/>
+    <sheet name="KICS비율" sheetId="34" r:id="rId20"/>
+    <sheet name="PPT_가용자본" sheetId="37" r:id="rId21"/>
+    <sheet name="요구자본" sheetId="31" r:id="rId22"/>
+    <sheet name="PPT_요구자본" sheetId="33" r:id="rId23"/>
+    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId24"/>
+    <sheet name="비율산출" sheetId="40" r:id="rId25"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId26"/>
+    <sheet name="운영위험액" sheetId="29" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTerm_CF!$A$1:$O$331</definedName>
@@ -3768,7 +3768,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -4167,7 +4167,7 @@
     <xf numFmtId="41" fontId="11" fillId="5" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="5" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4534,10 +4534,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4740,7 +4740,165 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>202112</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="41">
+        <v>9228667298</v>
+      </c>
       <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>202112</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="41">
+        <v>1958436755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>202112</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>202112</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="41">
+        <v>2402181945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>202112</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F14" s="41">
+        <v>301663699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>202112</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F15" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>202112</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F16" s="41">
+        <v>45502397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>202112</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F17" s="41">
+        <v>858914099</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4749,123 +4907,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -5486,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L94"/>
   <sheetViews>
@@ -7770,7 +7811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -10379,7 +10420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -12337,7 +12378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -13497,7 +13538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -14190,7 +14231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -15087,7 +15128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
@@ -15613,46 +15654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>202112</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -16519,7 +16521,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
@@ -17488,7 +17529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -18270,7 +18311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
@@ -18833,7 +18874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -19596,7 +19637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -20039,7 +20080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
@@ -20398,7 +20439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
   <sheetViews>
@@ -20749,6 +20790,123 @@
       <c r="H17" s="40">
         <f t="shared" si="0"/>
         <v>1127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="17" activeTab="26"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="15" r:id="rId1"/>
@@ -17,23 +17,24 @@
     <sheet name="STerm_RE_DT" sheetId="19" r:id="rId8"/>
     <sheet name="STerm_RTNRISK_DT" sheetId="20" r:id="rId9"/>
     <sheet name="OPERATION_DT" sheetId="39" r:id="rId10"/>
-    <sheet name="KICS_RATIO" sheetId="38" r:id="rId11"/>
-    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId12"/>
-    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId13"/>
-    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId14"/>
-    <sheet name="ppt_장기손보" sheetId="21" r:id="rId15"/>
-    <sheet name="시장위험액" sheetId="25" r:id="rId16"/>
-    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId17"/>
-    <sheet name="신용위험액" sheetId="28" r:id="rId18"/>
-    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId19"/>
-    <sheet name="KICS비율" sheetId="34" r:id="rId20"/>
-    <sheet name="PPT_가용자본" sheetId="37" r:id="rId21"/>
-    <sheet name="요구자본" sheetId="31" r:id="rId22"/>
-    <sheet name="PPT_요구자본" sheetId="33" r:id="rId23"/>
-    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId24"/>
-    <sheet name="비율산출" sheetId="40" r:id="rId25"/>
-    <sheet name="상관계수" sheetId="12" r:id="rId26"/>
-    <sheet name="운영위험액" sheetId="29" r:id="rId27"/>
+    <sheet name="CREDIT_DT" sheetId="41" r:id="rId11"/>
+    <sheet name="KICS_RATIO" sheetId="38" r:id="rId12"/>
+    <sheet name="신용위험액" sheetId="28" r:id="rId13"/>
+    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId14"/>
+    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId15"/>
+    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId16"/>
+    <sheet name="ppt_장기손보" sheetId="21" r:id="rId17"/>
+    <sheet name="시장위험액" sheetId="25" r:id="rId18"/>
+    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId19"/>
+    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId20"/>
+    <sheet name="KICS비율" sheetId="34" r:id="rId21"/>
+    <sheet name="PPT_가용자본" sheetId="37" r:id="rId22"/>
+    <sheet name="요구자본" sheetId="31" r:id="rId23"/>
+    <sheet name="PPT_요구자본" sheetId="33" r:id="rId24"/>
+    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId25"/>
+    <sheet name="비율산출" sheetId="40" r:id="rId26"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId27"/>
+    <sheet name="운영위험액" sheetId="29" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTerm_CF!$A$1:$O$331</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1012">
   <si>
     <t>결산년월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2951,10 +2952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신용위험액 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3758,6 +3755,26 @@
   </si>
   <si>
     <t>신용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSK_RDU_DVCD</t>
+  </si>
+  <si>
+    <t>CREDIT_ASET_CD</t>
+  </si>
+  <si>
+    <t>CREDIT_EXPO</t>
+  </si>
+  <si>
+    <t>AVG_CRD_RSK_COEF</t>
+  </si>
+  <si>
+    <t>신용위험액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4537,7 +4554,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4559,16 +4576,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4588,7 +4605,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F2" s="41">
-        <v>9228667298</v>
+        <v>50000</v>
       </c>
       <c r="G2" s="30"/>
     </row>
@@ -4609,7 +4626,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F3" s="41">
-        <v>1958436755</v>
+        <v>20000</v>
       </c>
       <c r="G3" s="30"/>
     </row>
@@ -4651,7 +4668,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F5" s="41">
-        <v>2402181945</v>
+        <v>24000</v>
       </c>
       <c r="G5" s="30"/>
     </row>
@@ -4672,7 +4689,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="F6" s="41">
-        <v>301663699</v>
+        <v>3000</v>
       </c>
       <c r="G6" s="30"/>
     </row>
@@ -4714,7 +4731,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F8" s="41">
-        <v>45502397</v>
+        <v>500</v>
       </c>
       <c r="G8" s="30"/>
     </row>
@@ -4735,7 +4752,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="F9" s="41">
-        <v>858914099</v>
+        <v>9000</v>
       </c>
       <c r="G9" s="30"/>
     </row>
@@ -4756,7 +4773,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F10" s="41">
-        <v>9228667298</v>
+        <v>60000</v>
       </c>
       <c r="G10" s="40"/>
     </row>
@@ -4777,7 +4794,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F11" s="41">
-        <v>1958436755</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4817,7 +4834,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F13" s="41">
-        <v>2402181945</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4837,7 +4854,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="F14" s="41">
-        <v>301663699</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4877,7 +4894,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F16" s="41">
-        <v>45502397</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,7 +4914,7 @@
         <v>2.75E-2</v>
       </c>
       <c r="F17" s="41">
-        <v>858914099</v>
+        <v>8200</v>
       </c>
     </row>
   </sheetData>
@@ -4907,6 +4924,783 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202212</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="41">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>202212</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="41">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202212</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="41">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202212</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>202212</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202212</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>8400</v>
+      </c>
+      <c r="F7" s="41">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202212</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>9800</v>
+      </c>
+      <c r="F8" s="41">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>202212</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>202212</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="41">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>202212</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>202212</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>4200</v>
+      </c>
+      <c r="F12" s="41">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>202212</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>202212</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>202212</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>750</v>
+      </c>
+      <c r="F15" s="41">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>202212</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>202212</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>202212</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>202212</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>900</v>
+      </c>
+      <c r="F19" s="41">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202112</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>9000</v>
+      </c>
+      <c r="F20" s="41">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>202112</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>88000</v>
+      </c>
+      <c r="F21" s="41">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>202112</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="41">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>202112</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>202112</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>7500</v>
+      </c>
+      <c r="F24" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>202112</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>8200</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>202112</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>9700</v>
+      </c>
+      <c r="F26" s="41">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>202112</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>202112</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>8500</v>
+      </c>
+      <c r="F28" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>202112</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>202112</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="41">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>202112</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>202112</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>202112</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>900</v>
+      </c>
+      <c r="F33" s="41">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>202112</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>202112</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>202112</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202112</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>800</v>
+      </c>
+      <c r="F37" s="41">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
@@ -4934,13 +5728,13 @@
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>961</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4954,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -4971,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -4988,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E4">
         <v>40000.300000000003</v>
@@ -5005,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E5">
         <v>500000.1</v>
@@ -5022,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E6">
         <v>677777.33</v>
@@ -5039,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E7">
         <v>45555.33</v>
@@ -5056,7 +5850,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E8">
         <v>1122.3330000000001</v>
@@ -5073,7 +5867,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E9">
         <v>125554.111</v>
@@ -5090,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E10">
         <v>55533.110999999997</v>
@@ -5107,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E11">
         <v>123</v>
@@ -5124,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E12">
         <v>2525</v>
@@ -5141,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E13">
         <v>255</v>
@@ -5158,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E14">
         <v>2125</v>
@@ -5175,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E15">
         <v>1235</v>
@@ -5192,7 +5986,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E16">
         <v>123124</v>
@@ -5209,7 +6003,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E17">
         <v>154778</v>
@@ -5226,7 +6020,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E18">
         <v>113.54</v>
@@ -5243,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -5260,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -5277,7 +6071,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E21">
         <v>40000.300000000003</v>
@@ -5294,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E22">
         <v>500000.1</v>
@@ -5311,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E23">
         <v>677777.33</v>
@@ -5328,7 +6122,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E24">
         <v>45555.33</v>
@@ -5345,7 +6139,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E25">
         <v>1122.3330000000001</v>
@@ -5362,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E26">
         <v>125554.111</v>
@@ -5379,7 +6173,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E27">
         <v>55533.110999999997</v>
@@ -5396,7 +6190,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E28">
         <v>123</v>
@@ -5413,7 +6207,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E29">
         <v>2525</v>
@@ -5430,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E30">
         <v>255</v>
@@ -5447,7 +6241,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E31">
         <v>2125</v>
@@ -5464,7 +6258,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E32">
         <v>1235</v>
@@ -5481,7 +6275,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E33">
         <v>123124</v>
@@ -5498,7 +6292,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E34">
         <v>154778</v>
@@ -5515,7 +6309,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E35">
         <v>100.54</v>
@@ -5527,7 +6321,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E8" si="0">E6+1</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f>A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <f>A12+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <f t="shared" ref="A14:A36" si="1">A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L94"/>
   <sheetViews>
@@ -5848,7 +7172,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>580</v>
@@ -5884,7 +7208,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>581</v>
@@ -5919,7 +7243,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>582</v>
@@ -5954,7 +7278,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>274</v>
@@ -5989,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>275</v>
@@ -6012,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>97</v>
@@ -6034,7 +7358,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>583</v>
@@ -6065,7 +7389,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>584</v>
@@ -6093,7 +7417,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>585</v>
@@ -6121,7 +7445,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>152</v>
@@ -7811,7 +9135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -9929,10 +11253,10 @@
       <c r="C78" s="14"/>
       <c r="D78" s="13"/>
       <c r="E78" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="2" t="s">
@@ -9955,7 +11279,7 @@
         <v>38</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="3" t="s">
@@ -9978,7 +11302,7 @@
         <v>40</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="3" t="s">
@@ -9998,10 +11322,10 @@
       <c r="C81" s="14"/>
       <c r="D81" s="13"/>
       <c r="E81" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>889</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="4" t="s">
@@ -10021,10 +11345,10 @@
       <c r="C82" s="14"/>
       <c r="D82" s="13"/>
       <c r="E82" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>891</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="4" t="s">
@@ -10044,10 +11368,10 @@
       <c r="C83" s="14"/>
       <c r="D83" s="13"/>
       <c r="E83" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="4" t="s">
@@ -10067,10 +11391,10 @@
       <c r="C84" s="14"/>
       <c r="D84" s="13"/>
       <c r="E84" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="4" t="s">
@@ -10090,10 +11414,10 @@
       <c r="C85" s="14"/>
       <c r="D85" s="13"/>
       <c r="E85" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="4" t="s">
@@ -10113,10 +11437,10 @@
       <c r="C86" s="14"/>
       <c r="D86" s="13"/>
       <c r="E86" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="4" t="s">
@@ -10136,10 +11460,10 @@
       <c r="C87" s="14"/>
       <c r="D87" s="13"/>
       <c r="E87" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="4" t="s">
@@ -10159,10 +11483,10 @@
       <c r="C88" s="14"/>
       <c r="D88" s="13"/>
       <c r="E88" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="4" t="s">
@@ -10182,10 +11506,10 @@
       <c r="C89" s="14"/>
       <c r="D89" s="13"/>
       <c r="E89" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="4" t="s">
@@ -10205,10 +11529,10 @@
       <c r="C90" s="14"/>
       <c r="D90" s="13"/>
       <c r="E90" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="4" t="s">
@@ -10228,10 +11552,10 @@
       <c r="C91" s="14"/>
       <c r="D91" s="13"/>
       <c r="E91" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="4" t="s">
@@ -10251,10 +11575,10 @@
       <c r="C92" s="14"/>
       <c r="D92" s="13"/>
       <c r="E92" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="4" t="s">
@@ -10274,10 +11598,10 @@
       <c r="C93" s="14"/>
       <c r="D93" s="13"/>
       <c r="E93" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="4" t="s">
@@ -10297,10 +11621,10 @@
       <c r="C94" s="14"/>
       <c r="D94" s="13"/>
       <c r="E94" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="4" t="s">
@@ -10320,10 +11644,10 @@
       <c r="C95" s="14"/>
       <c r="D95" s="13"/>
       <c r="E95" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="4" t="s">
@@ -10343,10 +11667,10 @@
       <c r="C96" s="14"/>
       <c r="D96" s="13"/>
       <c r="E96" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="4" t="s">
@@ -10420,7 +11744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -12378,7 +13702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -13538,7 +14862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -14231,7 +15555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -15128,538 +16452,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D6" t="s">
-        <v>651</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E7" s="10">
-        <f>E6+1</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" ref="E8:E10" si="0">E7+1</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f>A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <f>A11+1</f>
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <f>A12+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <f t="shared" ref="A14:A36" si="1">A13+1</f>
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>744</v>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15697,10 +16534,10 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="19"/>
@@ -15710,7 +16547,7 @@
         <v>768</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="19"/>
@@ -15871,7 +16708,7 @@
         <v>777</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="15"/>
@@ -16177,17 +17014,17 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -16258,17 +17095,17 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -16285,10 +17122,10 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="15"/>
@@ -16308,10 +17145,10 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="15"/>
@@ -16331,10 +17168,10 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="15"/>
@@ -16521,46 +17358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>202112</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
@@ -16585,22 +17383,22 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>797</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>798</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>279</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>948</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -16638,22 +17436,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -16662,23 +17460,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E6" s="10">
         <f>E5+1</f>
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -16687,23 +17485,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ref="E7:E15" si="1">E6+1</f>
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -16712,23 +17510,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -16737,23 +17535,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -16762,23 +17560,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -16787,23 +17585,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -16812,23 +17610,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -16837,23 +17635,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -16862,23 +17660,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -16887,23 +17685,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -16912,10 +17710,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -16924,10 +17722,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -16936,10 +17734,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>630</v>
@@ -16951,10 +17749,10 @@
         <v>280</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -16963,10 +17761,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>39</v>
@@ -16987,10 +17785,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" s="20">
         <v>0.2291</v>
@@ -17014,10 +17812,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>632</v>
@@ -17029,13 +17827,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -17044,10 +17842,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>633</v>
@@ -17060,13 +17858,13 @@
         <v>2</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -17075,10 +17873,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>634</v>
@@ -17091,13 +17889,13 @@
         <v>3</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -17106,10 +17904,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>635</v>
@@ -17122,13 +17920,13 @@
         <v>4</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -17137,10 +17935,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>636</v>
@@ -17153,13 +17951,13 @@
         <v>5</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -17168,10 +17966,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>637</v>
@@ -17184,13 +17982,13 @@
         <v>6</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -17199,10 +17997,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>638</v>
@@ -17229,7 +18027,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>163</v>
@@ -17254,10 +18052,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -17307,10 +18105,10 @@
         <v>121</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -17325,10 +18123,10 @@
         <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -17343,7 +18141,7 @@
         <v>123</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>23</v>
@@ -17361,10 +18159,10 @@
         <v>152</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -17415,10 +18213,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -17433,10 +18231,10 @@
         <v>29</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -17451,10 +18249,10 @@
         <v>30</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -17469,10 +18267,10 @@
         <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -17517,7 +18315,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>23</v>
@@ -17529,7 +18327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -17567,17 +18365,17 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>948</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>949</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
@@ -17639,17 +18437,17 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="3" t="s">
@@ -17663,17 +18461,17 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="3" t="s">
@@ -17687,17 +18485,17 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="3" t="s">
@@ -17711,17 +18509,17 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="3" t="s">
@@ -17735,17 +18533,17 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="4" t="s">
@@ -17759,17 +18557,17 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="4" t="s">
@@ -17783,17 +18581,17 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="4" t="s">
@@ -17807,17 +18605,17 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="4" t="s">
@@ -17831,17 +18629,17 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="25" t="s">
@@ -17855,17 +18653,17 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="26"/>
@@ -17875,17 +18673,17 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="26"/>
@@ -17895,10 +18693,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -17911,10 +18709,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -17931,10 +18729,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -17951,10 +18749,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -17971,10 +18769,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -17991,10 +18789,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -18011,10 +18809,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -18031,17 +18829,17 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="4" t="s">
@@ -18055,10 +18853,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="3" t="s">
@@ -18079,10 +18877,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="3" t="s">
@@ -18103,17 +18901,17 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
@@ -18127,17 +18925,17 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="6" t="s">
@@ -18154,10 +18952,10 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="6" t="s">
@@ -18174,10 +18972,10 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="6" t="s">
@@ -18194,10 +18992,10 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="6" t="s">
@@ -18214,10 +19012,10 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="6" t="s">
@@ -18285,7 +19083,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>23</v>
@@ -18311,7 +19109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
@@ -18332,10 +19130,10 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>163</v>
@@ -18353,7 +19151,7 @@
         <v>768</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -18361,7 +19159,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>39</v>
@@ -18387,7 +19185,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>41</v>
@@ -18410,10 +19208,10 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>889</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>154</v>
@@ -18436,10 +19234,10 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>891</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>155</v>
@@ -18462,10 +19260,10 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>156</v>
@@ -18488,10 +19286,10 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>157</v>
@@ -18514,10 +19312,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>158</v>
@@ -18535,15 +19333,15 @@
         <v>777</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>88</v>
@@ -18566,10 +19364,10 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>76</v>
@@ -18586,10 +19384,10 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>77</v>
@@ -18600,10 +19398,10 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>78</v>
@@ -18614,10 +19412,10 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>79</v>
@@ -18626,24 +19424,24 @@
         <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>80</v>
@@ -18666,10 +19464,10 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>81</v>
@@ -18692,10 +19490,10 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>82</v>
@@ -18704,24 +19502,24 @@
         <v>32</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>75</v>
@@ -18730,18 +19528,18 @@
         <v>25</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>159</v>
@@ -18752,13 +19550,13 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>23</v>
@@ -18766,10 +19564,10 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K22" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -18790,23 +19588,23 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K25" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K26" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K27" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>23</v>
@@ -18814,10 +19612,10 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K28" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -18838,34 +19636,34 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K31" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K32" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K33" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K34" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -18874,7 +19672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -18920,17 +19718,17 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>884</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>885</v>
       </c>
       <c r="J2" s="13"/>
     </row>
@@ -18954,7 +19752,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -18978,7 +19776,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J4" s="13"/>
     </row>
@@ -18992,17 +19790,17 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>889</v>
       </c>
       <c r="J5" s="13"/>
     </row>
@@ -19019,10 +19817,10 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>891</v>
       </c>
       <c r="J6" s="13"/>
     </row>
@@ -19039,10 +19837,10 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -19059,10 +19857,10 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="J8" s="13"/>
     </row>
@@ -19079,10 +19877,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>896</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="J9" s="13"/>
     </row>
@@ -19096,17 +19894,17 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="J10" s="13"/>
     </row>
@@ -19127,10 +19925,10 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J11" s="13"/>
     </row>
@@ -19151,10 +19949,10 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="8"/>
@@ -19170,17 +19968,17 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J13" s="13"/>
     </row>
@@ -19194,17 +19992,17 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -19218,17 +20016,17 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -19242,17 +20040,17 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -19273,10 +20071,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -19297,10 +20095,10 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J18" s="13"/>
     </row>
@@ -19314,41 +20112,41 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -19358,10 +20156,10 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -19374,10 +20172,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="21" t="s">
@@ -19394,7 +20192,7 @@
         <v>768</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -19480,10 +20278,10 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>911</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>912</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="4" t="s">
@@ -19550,14 +20348,14 @@
         <v>777</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="6" t="s">
@@ -19578,10 +20376,10 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="6" t="s">
@@ -19637,7 +20435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -19669,17 +20467,17 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -19720,102 +20518,102 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -19825,10 +20623,10 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G11" s="13"/>
     </row>
@@ -19838,10 +20636,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G12" s="13"/>
     </row>
@@ -19851,24 +20649,24 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>23</v>
@@ -19885,10 +20683,10 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -19912,10 +20710,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="4" t="s">
@@ -19929,51 +20727,51 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -19987,10 +20785,10 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G21" s="13"/>
     </row>
@@ -20011,10 +20809,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -20026,10 +20824,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -20040,10 +20838,10 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -20054,10 +20852,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -20080,7 +20878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
@@ -20098,21 +20896,21 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>1001</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C2" s="34">
         <f>C6+C7</f>
@@ -20129,7 +20927,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C3" s="36">
         <v>2061</v>
@@ -20144,7 +20942,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C4" s="36">
         <v>0</v>
@@ -20159,7 +20957,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C5" s="36">
         <v>331</v>
@@ -20174,7 +20972,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C6" s="36">
         <v>1729</v>
@@ -20189,7 +20987,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C7" s="36">
         <v>759</v>
@@ -20204,7 +21002,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C8" s="36">
         <f>C9-C16+C17</f>
@@ -20229,7 +21027,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C9" s="36">
         <f>G8+C15</f>
@@ -20246,7 +21044,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C10" s="36">
         <f>SUM(C11:C15)-C9</f>
@@ -20263,7 +21061,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C11" s="36">
         <v>1419</v>
@@ -20290,7 +21088,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C12" s="36">
         <v>65</v>
@@ -20317,7 +21115,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C13" s="36">
         <v>645</v>
@@ -20344,7 +21142,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C14" s="36">
         <v>564</v>
@@ -20371,7 +21169,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C15" s="36">
         <v>114</v>
@@ -20386,7 +21184,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C16" s="36">
         <v>460</v>
@@ -20402,7 +21200,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C17" s="36">
         <v>0</v>
@@ -20417,7 +21215,7 @@
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C18" s="39">
         <f>C2/C8*100</f>
@@ -20439,7 +21237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
   <sheetViews>
@@ -20684,21 +21482,21 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C13" t="s">
         <v>1003</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1004</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1005</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -20722,7 +21520,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -20746,7 +21544,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -20770,7 +21568,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B17">
         <v>0.25</v>
@@ -20798,11 +21596,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -20820,16 +21618,16 @@
         <v>279</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -20865,25 +21663,25 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -20892,10 +21690,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -20903,10 +21701,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>

--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="15" r:id="rId1"/>
@@ -18,23 +18,24 @@
     <sheet name="STerm_RTNRISK_DT" sheetId="20" r:id="rId9"/>
     <sheet name="OPERATION_DT" sheetId="39" r:id="rId10"/>
     <sheet name="CREDIT_DT" sheetId="41" r:id="rId11"/>
-    <sheet name="KICS_RATIO" sheetId="38" r:id="rId12"/>
-    <sheet name="신용위험액" sheetId="28" r:id="rId13"/>
-    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId14"/>
-    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId15"/>
-    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId16"/>
-    <sheet name="ppt_장기손보" sheetId="21" r:id="rId17"/>
-    <sheet name="시장위험액" sheetId="25" r:id="rId18"/>
-    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId19"/>
-    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId20"/>
-    <sheet name="KICS비율" sheetId="34" r:id="rId21"/>
-    <sheet name="PPT_가용자본" sheetId="37" r:id="rId22"/>
-    <sheet name="요구자본" sheetId="31" r:id="rId23"/>
-    <sheet name="PPT_요구자본" sheetId="33" r:id="rId24"/>
-    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId25"/>
-    <sheet name="비율산출" sheetId="40" r:id="rId26"/>
+    <sheet name="ITR_FV_DT" sheetId="42" r:id="rId12"/>
+    <sheet name="KICS_RATIO" sheetId="38" r:id="rId13"/>
+    <sheet name="비율산출" sheetId="40" r:id="rId14"/>
+    <sheet name="시장위험액" sheetId="25" r:id="rId15"/>
+    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId16"/>
+    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId17"/>
+    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId18"/>
+    <sheet name="ppt_장기손보" sheetId="21" r:id="rId19"/>
+    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId20"/>
+    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId21"/>
+    <sheet name="KICS비율" sheetId="34" r:id="rId22"/>
+    <sheet name="PPT_가용자본" sheetId="37" r:id="rId23"/>
+    <sheet name="요구자본" sheetId="31" r:id="rId24"/>
+    <sheet name="PPT_요구자본" sheetId="33" r:id="rId25"/>
+    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId26"/>
     <sheet name="상관계수" sheetId="12" r:id="rId27"/>
     <sheet name="운영위험액" sheetId="29" r:id="rId28"/>
+    <sheet name="신용위험액" sheetId="28" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTerm_CF!$A$1:$O$331</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1006">
   <si>
     <t>결산년월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3620,58 +3621,12 @@
     <t>가. 지급여력금액 (Ⅳ + Ⅴ)</t>
   </si>
   <si>
-    <t>' Ⅰ. 건전성감독기준 재무상태표 상의 순자산</t>
-  </si>
-  <si>
-    <t>' Ⅱ. 지급여력금액으로 불인정하는 항목</t>
-  </si>
-  <si>
-    <t>' Ⅲ. 보완자본으로 재뷴류하는 항목</t>
-  </si>
-  <si>
-    <t>' Ⅳ. 기본자본</t>
-  </si>
-  <si>
-    <t>' Ⅴ. 보완자본</t>
-  </si>
-  <si>
     <t>나. 지급여력기준금액 (Ⅰ-Ⅱ+Ⅲ)</t>
   </si>
   <si>
-    <t>' Ⅰ. 기본요구자본</t>
-  </si>
-  <si>
-    <t>''''' - 분산효과 : (1+2+3+4+5) - Ⅰ</t>
-  </si>
-  <si>
-    <t>'''  1. 장기손해보험위험액</t>
-  </si>
-  <si>
-    <t>'''        2. 일반손해보험위험액</t>
-  </si>
-  <si>
-    <t>'''       3. 시장위험액</t>
-  </si>
-  <si>
-    <t> '''      4. 신용위험액</t>
-  </si>
-  <si>
-    <t>  '''     5. 운영위험액</t>
-  </si>
-  <si>
-    <t>'    Ⅱ. 법인세조정액</t>
-  </si>
-  <si>
-    <t>'   Ⅲ. 기타요구자본</t>
-  </si>
-  <si>
     <t>다. 지급여력비율 : 가 ÷ 나 × 100</t>
   </si>
   <si>
-    <t xml:space="preserve">   Ⅲ. 기타요구자본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPER_PROD_CD</t>
   </si>
   <si>
@@ -3776,16 +3731,42 @@
   <si>
     <t>신용위험액</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    Ⅰ. 건전성감독기준 재무상태표 상의 순자산</t>
+  </si>
+  <si>
+    <t>    Ⅱ. 지급여력금액으로 불인정하는 항목</t>
+  </si>
+  <si>
+    <t>    Ⅲ. 보완자본으로 재뷴류하는 항목</t>
+  </si>
+  <si>
+    <t>    Ⅳ. 기본자본</t>
+  </si>
+  <si>
+    <t>    Ⅴ. 보완자본</t>
+  </si>
+  <si>
+    <t>    Ⅰ. 기본요구자본</t>
+  </si>
+  <si>
+    <t>         - 분산효과 : (1+2+3+4+5) - Ⅰ</t>
+  </si>
+  <si>
+    <t>    Ⅱ. 법인세조정액</t>
+  </si>
+  <si>
+    <t>    Ⅲ. 기타요구자본</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -4154,9 +4135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4169,22 +4147,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="5" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="11" fillId="5" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="5" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4195,6 +4158,24 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -4576,16 +4557,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4604,10 +4585,10 @@
       <c r="E2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="35">
         <v>50000</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4625,10 +4606,10 @@
       <c r="E3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="35">
         <v>20000</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -4646,10 +4627,10 @@
       <c r="E4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30"/>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -4667,10 +4648,10 @@
       <c r="E5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="35">
         <v>24000</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -4688,10 +4669,10 @@
       <c r="E6">
         <v>2.75E-2</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="35">
         <v>3000</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -4709,10 +4690,10 @@
       <c r="E7">
         <v>2.75E-2</v>
       </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30"/>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -4730,10 +4711,10 @@
       <c r="E8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="35">
         <v>500</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -4751,10 +4732,10 @@
       <c r="E9">
         <v>2.75E-2</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="35">
         <v>9000</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -4772,10 +4753,10 @@
       <c r="E10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="35">
         <v>60000</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -4793,7 +4774,7 @@
       <c r="E11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="35">
         <v>19000</v>
       </c>
     </row>
@@ -4813,7 +4794,7 @@
       <c r="E12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4833,7 +4814,7 @@
       <c r="E13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="35">
         <v>23000</v>
       </c>
     </row>
@@ -4853,7 +4834,7 @@
       <c r="E14">
         <v>2.75E-2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="35">
         <v>3100</v>
       </c>
     </row>
@@ -4873,7 +4854,7 @@
       <c r="E15">
         <v>2.75E-2</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4893,7 +4874,7 @@
       <c r="E16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="35">
         <v>450</v>
       </c>
     </row>
@@ -4913,7 +4894,7 @@
       <c r="E17">
         <v>2.75E-2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="35">
         <v>8200</v>
       </c>
     </row>
@@ -4930,7 +4911,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4953,16 +4934,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4981,10 +4962,10 @@
       <c r="E2">
         <v>10000</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="35">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -5002,10 +4983,10 @@
       <c r="E3">
         <v>90000</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="35">
         <v>5.5E-2</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5023,10 +5004,10 @@
       <c r="E4">
         <v>5000</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="35">
         <v>2.3E-2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5044,10 +5025,10 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="41">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30"/>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -5065,10 +5046,10 @@
       <c r="E6">
         <v>8000</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="35">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -5086,10 +5067,10 @@
       <c r="E7">
         <v>8400</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="35">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5107,10 +5088,10 @@
       <c r="E8">
         <v>9800</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="35">
         <v>2.4E-2</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5128,10 +5109,10 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="41">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30"/>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -5149,10 +5130,10 @@
       <c r="E10">
         <v>8000</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="35">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -5170,7 +5151,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5190,7 +5171,7 @@
       <c r="E12">
         <v>4200</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="35">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -5250,7 +5231,7 @@
       <c r="E15">
         <v>750</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="35">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -5270,7 +5251,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5290,7 +5271,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5310,7 +5291,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5330,7 +5311,7 @@
       <c r="E19">
         <v>900</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="35">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -5350,7 +5331,7 @@
       <c r="E20">
         <v>9000</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="35">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -5370,7 +5351,7 @@
       <c r="E21">
         <v>88000</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="35">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
@@ -5390,7 +5371,7 @@
       <c r="E22">
         <v>6000</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="35">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -5410,7 +5391,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5430,7 +5411,7 @@
       <c r="E24">
         <v>7500</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="35">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -5450,7 +5431,7 @@
       <c r="E25">
         <v>8200</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="35">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -5470,7 +5451,7 @@
       <c r="E26">
         <v>9700</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="35">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -5490,7 +5471,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5491,7 @@
       <c r="E28">
         <v>8500</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="35">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -5530,7 +5511,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5550,7 +5531,7 @@
       <c r="E30">
         <v>4000</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="35">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
@@ -5610,7 +5591,7 @@
       <c r="E33">
         <v>900</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="35">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -5630,7 +5611,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5650,7 +5631,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5670,7 +5651,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5690,7 +5671,7 @@
       <c r="E37">
         <v>800</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="35">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -5705,10 +5686,787 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202212</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="35">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>202212</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202212</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="35">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202212</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>202212</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202212</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>8400</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>202212</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>9800</v>
+      </c>
+      <c r="F8" s="35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>202212</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>202212</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>202212</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>202212</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>4200</v>
+      </c>
+      <c r="F12" s="35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>202212</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>202212</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>202212</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>750</v>
+      </c>
+      <c r="F15" s="35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>202212</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>202212</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>202212</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>202212</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>900</v>
+      </c>
+      <c r="F19" s="35">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>202112</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>9000</v>
+      </c>
+      <c r="F20" s="35">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>202112</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>88000</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>202112</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>202112</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>202112</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>7500</v>
+      </c>
+      <c r="F24" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>202112</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>8200</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>202112</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>9700</v>
+      </c>
+      <c r="F26" s="35">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>202112</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>202112</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>8500</v>
+      </c>
+      <c r="F28" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>202112</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>202112</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="35">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>202112</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>202112</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>202112</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>900</v>
+      </c>
+      <c r="F33" s="35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>202112</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>202112</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>202112</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202112</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>800</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5744,14 +6502,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="28">
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>962</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>38050</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5761,14 +6519,14 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="28">
         <v>2</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>30261</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5778,14 +6536,14 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
       <c r="E4">
-        <v>40000.300000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5795,14 +6553,14 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="28">
         <v>4</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E5">
-        <v>500000.1</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5812,14 +6570,14 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="28">
         <v>5</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>677777.33</v>
+        <v>27291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5829,14 +6587,14 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="E7">
-        <v>45555.33</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -5846,14 +6604,14 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="28">
         <v>7</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E8">
-        <v>1122.3330000000001</v>
+        <v>14201.304539506116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5863,14 +6621,14 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="28">
         <v>8</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="E9">
-        <v>125554.111</v>
+        <v>20661.304539506116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5880,14 +6638,14 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="28">
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="E10">
-        <v>55533.110999999997</v>
+        <v>7349.7954604938823</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -5897,14 +6655,14 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="28">
         <v>10</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="E11">
-        <v>123</v>
+        <v>14192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -5914,14 +6672,14 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="28">
         <v>11</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="E12">
-        <v>2525</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5931,14 +6689,14 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="28">
         <v>12</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="E13">
-        <v>255</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5948,14 +6706,14 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="28">
         <v>13</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="E14">
-        <v>2125</v>
+        <v>5617.6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5965,14 +6723,14 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="28">
         <v>14</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="E15">
-        <v>1235</v>
+        <v>1097.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5982,14 +6740,14 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="28">
         <v>15</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="E16">
-        <v>123124</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5999,14 +6757,14 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="28">
         <v>16</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="E17">
-        <v>154778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6016,14 +6774,14 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="28">
         <v>17</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="E18">
-        <v>113.54</v>
+        <v>267.93313173553901</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6033,14 +6791,14 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="28">
         <v>1</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>962</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>33663</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6050,14 +6808,14 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="28">
         <v>2</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="E20">
-        <v>500</v>
+        <v>28007</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6067,14 +6825,14 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="28">
         <v>3</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
       <c r="E21">
-        <v>40000.300000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6084,14 +6842,14 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="28">
         <v>4</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E22">
-        <v>500000.1</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -6101,14 +6859,14 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="28">
         <v>5</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="E23">
-        <v>677777.33</v>
+        <v>23522</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6118,14 +6876,14 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="28">
         <v>6</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="E24">
-        <v>45555.33</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6135,14 +6893,14 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="28">
         <v>7</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E25">
-        <v>1122.3330000000001</v>
+        <v>15534.884977559606</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6152,14 +6910,14 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="28">
         <v>8</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="E26">
-        <v>125554.111</v>
+        <v>21306.884977559606</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -6169,14 +6927,14 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="28">
         <v>9</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="E27">
-        <v>55533.110999999997</v>
+        <v>8110.2150224403922</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6186,14 +6944,14 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="28">
         <v>10</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="E28">
-        <v>123</v>
+        <v>14264</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6203,14 +6961,14 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="28">
         <v>11</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="E29">
-        <v>2525</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -6220,14 +6978,14 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="28">
         <v>12</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="E30">
-        <v>255</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -6237,14 +6995,14 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="28">
         <v>13</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="E31">
-        <v>2125</v>
+        <v>5952.6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -6254,14 +7012,14 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="28">
         <v>14</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="E32">
-        <v>1235</v>
+        <v>1070.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6271,14 +7029,14 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="28">
         <v>15</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="E33">
-        <v>123124</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6288,14 +7046,14 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="28">
         <v>16</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>979</v>
+      <c r="D34" s="28" t="s">
+        <v>1005</v>
       </c>
       <c r="E34">
-        <v>154778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6305,14 +7063,14 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="28">
         <v>17</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="E35">
-        <v>100.54</v>
+        <v>216.69294654338768</v>
       </c>
     </row>
   </sheetData>
@@ -6321,527 +7079,357 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K36"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>962</v>
+      </c>
+      <c r="C2" s="37">
+        <f>C6+C7</f>
+        <v>38050</v>
+      </c>
+      <c r="D2" s="37">
+        <f>D6+D7</f>
+        <v>33663</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C2-D2</f>
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="C3" s="39">
+        <v>30261</v>
+      </c>
+      <c r="D3" s="39">
+        <v>28007</v>
+      </c>
+      <c r="E3" s="40">
+        <f t="shared" ref="E3:E18" si="0">C3-D3</f>
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" s="39">
+        <v>7421</v>
+      </c>
+      <c r="D5" s="39">
+        <v>6957</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="C6" s="39">
+        <v>27291</v>
+      </c>
+      <c r="D6" s="39">
+        <v>23522</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="0"/>
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="C7" s="39">
+        <v>10759</v>
+      </c>
+      <c r="D7" s="39">
+        <v>10141</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="C8" s="39">
+        <f>C9-C16+C17</f>
+        <v>14201.304539506116</v>
+      </c>
+      <c r="D8" s="39">
+        <f>D9-D16+D17</f>
+        <v>15534.884977559606</v>
+      </c>
+      <c r="E8" s="40">
+        <f t="shared" si="0"/>
+        <v>-1333.5804380534901</v>
+      </c>
+      <c r="G8" s="29">
+        <f t="array" ref="G8">SQRT(MMULT(MMULT(TRANSPOSE(C11:C14),G11:J14),C11:C14))</f>
+        <v>19563.804539506116</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="array" ref="H8">SQRT(MMULT(MMULT(TRANSPOSE(D11:D14),G11:J14),D11:D14))</f>
+        <v>20236.384977559606</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>974</v>
+      </c>
+      <c r="C9" s="39">
+        <f>G8+C15</f>
+        <v>20661.304539506116</v>
+      </c>
+      <c r="D9" s="39">
+        <f>H8+D15</f>
+        <v>21306.884977559606</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" si="0"/>
+        <v>-645.58043805349007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="C10" s="39">
+        <f>SUM(C11:C15)-C9</f>
+        <v>7349.7954604938823</v>
+      </c>
+      <c r="D10" s="39">
+        <f>SUM(D11:D15)-D9</f>
+        <v>8110.2150224403922</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="0"/>
+        <v>-760.41956194650993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="C11" s="39">
+        <v>14192</v>
+      </c>
+      <c r="D11" s="39">
+        <v>14264</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" si="0"/>
+        <v>-72</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>977</v>
+      </c>
+      <c r="C12" s="39">
         <v>651</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:E8" si="0">E6+1</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D12" s="39">
+        <v>1142</v>
+      </c>
+      <c r="E12" s="40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f>A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <f>A11+1</f>
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <f>A12+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <f t="shared" ref="A14:A36" si="1">A13+1</f>
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <f t="shared" si="1"/>
+        <v>-491</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>978</v>
+      </c>
+      <c r="C13" s="39">
+        <v>6453</v>
+      </c>
+      <c r="D13" s="39">
+        <v>6988</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="0"/>
+        <v>-535</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="C14" s="39">
+        <v>5617.6</v>
+      </c>
+      <c r="D14" s="39">
+        <v>5952.6</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="0"/>
+        <v>-335</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <v>0.25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1097.5</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1070.5</v>
+      </c>
+      <c r="E15" s="40">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>744</v>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>981</v>
+      </c>
+      <c r="C16" s="39">
+        <v>6460</v>
+      </c>
+      <c r="D16" s="39">
+        <v>5772</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>982</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C18" s="41">
+        <f>C2/C8*100</f>
+        <v>267.93313173553901</v>
+      </c>
+      <c r="D18" s="41">
+        <f>D2/D8*100</f>
+        <v>216.69294654338768</v>
+      </c>
+      <c r="E18" s="42">
+        <f t="shared" si="0"/>
+        <v>51.24018519215133</v>
       </c>
     </row>
   </sheetData>
@@ -6851,7 +7439,700 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f>A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <f>A12+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D20" t="s">
+        <v>667</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D21" t="s">
+        <v>668</v>
+      </c>
+      <c r="E21" s="10">
+        <f>E20+1</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I21" s="10">
+        <f>I20+1</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <f>A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D22" t="s">
+        <v>669</v>
+      </c>
+      <c r="E22" s="10">
+        <f>E21+1</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="I22" s="10">
+        <f>I21+1</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <f>A22+1</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I23" s="10">
+        <f>I22+1</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f>A23+1</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D24" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f>A24+1</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E30" s="10">
+        <f>E29+1</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I30" s="10">
+        <f>I29+1</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E31" s="10">
+        <f>E30+1</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="I31" s="10">
+        <f>I30+1</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I32" s="10">
+        <f>I31+1</f>
+        <v>4</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I33" s="10">
+        <f t="shared" ref="I33:I34" si="0">I32+1</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="L33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I34" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L94"/>
   <sheetViews>
@@ -9135,7 +10416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -11744,7 +13025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -13702,7 +14983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -14862,691 +16143,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" t="s">
-        <v>650</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D6" t="s">
-        <v>651</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f>A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <f>A11+1</f>
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <f>A12+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="F19" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D20" t="s">
-        <v>667</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <f>A20+1</f>
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D21" t="s">
-        <v>668</v>
-      </c>
-      <c r="E21" s="10">
-        <f>E20+1</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I21" s="10">
-        <f>I20+1</f>
-        <v>2</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <f>A21+1</f>
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D22" t="s">
-        <v>669</v>
-      </c>
-      <c r="E22" s="10">
-        <f>E21+1</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="I22" s="10">
-        <f>I21+1</f>
-        <v>3</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <f>A22+1</f>
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I23" s="10">
-        <f>I22+1</f>
-        <v>4</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="L23" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <f>A23+1</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D24" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <f>A24+1</f>
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E30" s="10">
-        <f>E29+1</f>
-        <v>2</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I30" s="10">
-        <f>I29+1</f>
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E31" s="10">
-        <f>E30+1</f>
-        <v>3</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="I31" s="10">
-        <f>I30+1</f>
-        <v>3</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I32" s="10">
-        <f>I31+1</f>
-        <v>4</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I33" s="10">
-        <f t="shared" ref="I33:I34" si="0">I32+1</f>
-        <v>5</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="L33" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I34" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>712</v>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15555,7 +16182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -16452,46 +17079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>202112</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -17358,7 +17946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
@@ -18327,7 +18915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -19109,7 +19697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
@@ -19672,7 +20260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -20435,7 +21023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -20878,365 +21466,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>999</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>962</v>
-      </c>
-      <c r="C2" s="34">
-        <f>C6+C7</f>
-        <v>2488</v>
-      </c>
-      <c r="D2" s="34">
-        <f>D6+D7</f>
-        <v>2406</v>
-      </c>
-      <c r="E2" s="35">
-        <f>C2-D2</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>984</v>
-      </c>
-      <c r="C3" s="36">
-        <v>2061</v>
-      </c>
-      <c r="D3" s="36">
-        <v>2007</v>
-      </c>
-      <c r="E3" s="37">
-        <f t="shared" ref="E3:E18" si="0">C3-D3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>985</v>
-      </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>986</v>
-      </c>
-      <c r="C5" s="36">
-        <v>331</v>
-      </c>
-      <c r="D5" s="36">
-        <v>655</v>
-      </c>
-      <c r="E5" s="37">
-        <f t="shared" si="0"/>
-        <v>-324</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>987</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1729</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1352</v>
-      </c>
-      <c r="E6" s="37">
-        <f t="shared" si="0"/>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>988</v>
-      </c>
-      <c r="C7" s="36">
-        <v>759</v>
-      </c>
-      <c r="D7" s="36">
-        <v>1054</v>
-      </c>
-      <c r="E7" s="37">
-        <f t="shared" si="0"/>
-        <v>-295</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>968</v>
-      </c>
-      <c r="C8" s="36">
-        <f>C9-C16+C17</f>
-        <v>1611.2621183684114</v>
-      </c>
-      <c r="D8" s="36">
-        <f>D9-D16+D17</f>
-        <v>2115.2789752463891</v>
-      </c>
-      <c r="E8" s="37">
-        <f t="shared" si="0"/>
-        <v>-504.01685687797772</v>
-      </c>
-      <c r="G8" s="30">
-        <f t="array" ref="G8">SQRT(MMULT(MMULT(TRANSPOSE(C11:C14),G11:J14),C11:C14))</f>
-        <v>1957.2621183684112</v>
-      </c>
-      <c r="H8" s="30">
-        <f t="array" ref="H8">SQRT(MMULT(MMULT(TRANSPOSE(D11:D14),G11:J14),D11:D14))</f>
-        <v>2380.2789752463891</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>989</v>
-      </c>
-      <c r="C9" s="36">
-        <f>G8+C15</f>
-        <v>2071.2621183684114</v>
-      </c>
-      <c r="D9" s="36">
-        <f>H8+D15</f>
-        <v>2492.2789752463891</v>
-      </c>
-      <c r="E9" s="37">
-        <f t="shared" si="0"/>
-        <v>-421.01685687797772</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>990</v>
-      </c>
-      <c r="C10" s="36">
-        <f>SUM(C11:C15)-C9</f>
-        <v>735.73788163158861</v>
-      </c>
-      <c r="D10" s="36">
-        <f>SUM(D11:D15)-D9</f>
-        <v>991.72102475361089</v>
-      </c>
-      <c r="E10" s="37">
-        <f t="shared" si="0"/>
-        <v>-255.98314312202228</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>991</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1419</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1426</v>
-      </c>
-      <c r="E11" s="37">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.25</v>
-      </c>
-      <c r="J11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>992</v>
-      </c>
-      <c r="C12" s="36">
-        <v>65</v>
-      </c>
-      <c r="D12" s="36">
-        <v>114</v>
-      </c>
-      <c r="E12" s="37">
-        <f t="shared" si="0"/>
-        <v>-49</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0.25</v>
-      </c>
-      <c r="J12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>993</v>
-      </c>
-      <c r="C13" s="36">
-        <v>645</v>
-      </c>
-      <c r="D13" s="36">
-        <v>1188</v>
-      </c>
-      <c r="E13" s="37">
-        <f t="shared" si="0"/>
-        <v>-543</v>
-      </c>
-      <c r="G13">
-        <v>0.25</v>
-      </c>
-      <c r="H13">
-        <v>0.25</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>994</v>
-      </c>
-      <c r="C14" s="36">
-        <v>564</v>
-      </c>
-      <c r="D14" s="36">
-        <v>644</v>
-      </c>
-      <c r="E14" s="37">
-        <f t="shared" si="0"/>
-        <v>-80</v>
-      </c>
-      <c r="G14">
-        <v>0.25</v>
-      </c>
-      <c r="H14">
-        <v>0.25</v>
-      </c>
-      <c r="I14">
-        <v>0.25</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>995</v>
-      </c>
-      <c r="C15" s="36">
-        <v>114</v>
-      </c>
-      <c r="D15" s="36">
-        <v>112</v>
-      </c>
-      <c r="E15" s="37">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>996</v>
-      </c>
-      <c r="C16" s="36">
-        <v>460</v>
-      </c>
-      <c r="D16" s="36">
-        <v>377</v>
-      </c>
-      <c r="E16" s="37">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>997</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0</v>
-      </c>
-      <c r="D17" s="36">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
-        <v>978</v>
-      </c>
-      <c r="C18" s="39">
-        <f>C2/C8*100</f>
-        <v>154.41311327541086</v>
-      </c>
-      <c r="D18" s="39">
-        <f>D2/D8*100</f>
-        <v>113.74386207000178</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" si="0"/>
-        <v>40.669251205409083</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
@@ -21482,21 +21711,21 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="C13" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="D13" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="E13" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -21510,17 +21739,17 @@
       <c r="E14">
         <v>0.25</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="33">
         <v>1426</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="34">
         <f>B14*G14+C14*G14+D14*G14+E14*G14</f>
         <v>2139</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -21534,17 +21763,17 @@
       <c r="E15">
         <v>0.25</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="33">
         <v>114</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="34">
         <f t="shared" ref="H15:H17" si="0">B15*G15+C15*G15+D15*G15+E15*G15</f>
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -21558,17 +21787,17 @@
       <c r="E16">
         <v>0.25</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="33">
         <v>1188</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="34">
         <f t="shared" si="0"/>
         <v>2079</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="B17">
         <v>0.25</v>
@@ -21582,10 +21811,10 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="33">
         <v>644</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="34">
         <f t="shared" si="0"/>
         <v>1127</v>
       </c>
@@ -21710,6 +21939,536 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E8" si="0">E6+1</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f>A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <f>A12+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <f t="shared" ref="A14:A36" si="1">A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KICS_DB.xlsx
+++ b/KICS_DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="26955" windowHeight="12795" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="15" r:id="rId1"/>
@@ -19,23 +19,25 @@
     <sheet name="OPERATION_DT" sheetId="39" r:id="rId10"/>
     <sheet name="CREDIT_DT" sheetId="41" r:id="rId11"/>
     <sheet name="ITR_FV_DT" sheetId="42" r:id="rId12"/>
-    <sheet name="KICS_RATIO" sheetId="38" r:id="rId13"/>
-    <sheet name="비율산출" sheetId="40" r:id="rId14"/>
-    <sheet name="시장위험액" sheetId="25" r:id="rId15"/>
-    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId16"/>
-    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId17"/>
-    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId18"/>
-    <sheet name="ppt_장기손보" sheetId="21" r:id="rId19"/>
-    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId20"/>
-    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId21"/>
-    <sheet name="KICS비율" sheetId="34" r:id="rId22"/>
-    <sheet name="PPT_가용자본" sheetId="37" r:id="rId23"/>
-    <sheet name="요구자본" sheetId="31" r:id="rId24"/>
-    <sheet name="PPT_요구자본" sheetId="33" r:id="rId25"/>
-    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId26"/>
-    <sheet name="상관계수" sheetId="12" r:id="rId27"/>
-    <sheet name="운영위험액" sheetId="29" r:id="rId28"/>
-    <sheet name="신용위험액" sheetId="28" r:id="rId29"/>
+    <sheet name="AVL_CAPTIAL" sheetId="44" r:id="rId13"/>
+    <sheet name="REQ_CAPTIAL" sheetId="43" r:id="rId14"/>
+    <sheet name="KICS_RATIO" sheetId="38" r:id="rId15"/>
+    <sheet name="비율산출" sheetId="40" r:id="rId16"/>
+    <sheet name="가용자본" sheetId="34" r:id="rId17"/>
+    <sheet name="요구자본" sheetId="31" r:id="rId18"/>
+    <sheet name="시장위험액" sheetId="25" r:id="rId19"/>
+    <sheet name="논리물리_일반손보" sheetId="17" r:id="rId20"/>
+    <sheet name="ppt_일반손보_수정" sheetId="22" r:id="rId21"/>
+    <sheet name="ppt_일반손보_수정_OLD" sheetId="24" r:id="rId22"/>
+    <sheet name="ppt_장기손보" sheetId="21" r:id="rId23"/>
+    <sheet name="ppt_시장위험액" sheetId="27" r:id="rId24"/>
+    <sheet name="ppt_신용운영위험액" sheetId="32" r:id="rId25"/>
+    <sheet name="PPT_가용자본" sheetId="37" r:id="rId26"/>
+    <sheet name="PPT_요구자본" sheetId="33" r:id="rId27"/>
+    <sheet name="PPT_KICS비율" sheetId="36" r:id="rId28"/>
+    <sheet name="상관계수" sheetId="12" r:id="rId29"/>
+    <sheet name="운영위험액" sheetId="29" r:id="rId30"/>
+    <sheet name="신용위험액" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LTerm_CF!$A$1:$O$331</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1018">
   <si>
     <t>결산년월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3758,6 +3760,44 @@
   </si>
   <si>
     <t>    Ⅲ. 기타요구자본</t>
+  </si>
+  <si>
+    <t>LT_RISK_FINAL</t>
+  </si>
+  <si>
+    <t>MARKET_RISK</t>
+  </si>
+  <si>
+    <t>OPERATION_RISK</t>
+  </si>
+  <si>
+    <t>ADJ_COP_TAX</t>
+  </si>
+  <si>
+    <t>OTH_REQ_CAPITAL</t>
+  </si>
+  <si>
+    <t>시장위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAP_NAV</t>
+  </si>
+  <si>
+    <t>DISAPP_CAPITAL</t>
+  </si>
+  <si>
+    <t>RECL_T2_CAPITAL</t>
+  </si>
+  <si>
+    <t>T1_CAPITAL</t>
+  </si>
+  <si>
+    <t>T2_CAPITAL</t>
+  </si>
+  <si>
+    <t>       5. 운영위험액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4047,7 +4087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4176,6 +4216,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -6463,10 +6506,457 @@
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="43">
+        <v>202212</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43">
+        <v>30261</v>
+      </c>
+      <c r="D2" s="43">
+        <v>0</v>
+      </c>
+      <c r="E2" s="43">
+        <v>7421</v>
+      </c>
+      <c r="F2" s="35">
+        <v>24291</v>
+      </c>
+      <c r="G2" s="35">
+        <v>13759</v>
+      </c>
+      <c r="H2" s="43">
+        <v>38050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>202112</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43">
+        <v>28007</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>6957</v>
+      </c>
+      <c r="F3" s="35">
+        <v>21022</v>
+      </c>
+      <c r="G3" s="35">
+        <v>12641</v>
+      </c>
+      <c r="H3" s="43">
+        <v>33663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="35"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="35"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="35"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="35"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="35"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="35"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="43">
+        <v>202212</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43">
+        <v>20661</v>
+      </c>
+      <c r="D2" s="43">
+        <v>7350</v>
+      </c>
+      <c r="E2" s="43">
+        <v>14192</v>
+      </c>
+      <c r="F2" s="35">
+        <v>651</v>
+      </c>
+      <c r="G2" s="35">
+        <v>6453</v>
+      </c>
+      <c r="H2" s="43">
+        <v>5618</v>
+      </c>
+      <c r="I2" s="43">
+        <v>1098</v>
+      </c>
+      <c r="J2" s="43">
+        <v>6460</v>
+      </c>
+      <c r="K2" s="43">
+        <v>0</v>
+      </c>
+      <c r="L2" s="43">
+        <v>14201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>202112</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43">
+        <v>21307</v>
+      </c>
+      <c r="D3" s="43">
+        <v>8110</v>
+      </c>
+      <c r="E3" s="43">
+        <v>14264</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1142</v>
+      </c>
+      <c r="G3" s="35">
+        <v>6988</v>
+      </c>
+      <c r="H3" s="43">
+        <v>5953</v>
+      </c>
+      <c r="I3" s="43">
+        <v>1071</v>
+      </c>
+      <c r="J3" s="43">
+        <v>5772</v>
+      </c>
+      <c r="K3" s="43">
+        <v>0</v>
+      </c>
+      <c r="L3" s="43">
+        <v>15535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="35"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="35"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="35"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="35"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="35"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="35"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="35"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6577,7 +7067,7 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>27291</v>
+        <v>24291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6594,7 +7084,7 @@
         <v>1001</v>
       </c>
       <c r="E7">
-        <v>10759</v>
+        <v>13759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6727,7 +7217,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>980</v>
+        <v>1017</v>
       </c>
       <c r="E15">
         <v>1097.5</v>
@@ -6866,7 +7356,7 @@
         <v>1000</v>
       </c>
       <c r="E23">
-        <v>23522</v>
+        <v>21022</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,7 +7373,7 @@
         <v>1001</v>
       </c>
       <c r="E24">
-        <v>10141</v>
+        <v>12641</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -7079,12 +7569,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="D39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7177,14 +7667,14 @@
         <v>972</v>
       </c>
       <c r="C6" s="39">
-        <v>27291</v>
+        <v>24291</v>
       </c>
       <c r="D6" s="39">
-        <v>23522</v>
+        <v>21022</v>
       </c>
       <c r="E6" s="40">
         <f t="shared" si="0"/>
-        <v>3769</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -7192,14 +7682,14 @@
         <v>973</v>
       </c>
       <c r="C7" s="39">
-        <v>10759</v>
+        <v>13759</v>
       </c>
       <c r="D7" s="39">
-        <v>10141</v>
+        <v>12641</v>
       </c>
       <c r="E7" s="40">
         <f t="shared" si="0"/>
-        <v>618</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -7439,7 +7929,1539 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="84.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="E6" s="10">
+        <f>E5+1</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <f t="shared" ref="A7" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E15" si="1">E6+1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <f>A7+1</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <f>A8+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f t="shared" ref="A10:A27" si="2">A9+1</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I18" t="s">
+        <v>280</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.2291</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="I22" s="10">
+        <f>I21+1</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" ref="I23:I26" si="3">I22+1</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f>A33+1</f>
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f t="shared" ref="A35:A48" si="4">A34+1</f>
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K32" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -8132,7 +10154,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>202112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L94"/>
   <sheetViews>
@@ -10416,7 +12477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -13025,7 +15086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
@@ -14983,7 +17044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
@@ -16143,46 +18204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>202112</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -17079,7 +19101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -17946,976 +19968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L48"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="84.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.875" customWidth="1"/>
-    <col min="9" max="9" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>945</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>797</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>947</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <f>A5+1</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="E6" s="10">
-        <f>E5+1</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <f t="shared" ref="A7" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:E15" si="1">E6+1</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <f>A7+1</f>
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <f>A8+1</f>
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <f t="shared" ref="A10:A27" si="2">A9+1</f>
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I18" t="s">
-        <v>280</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.2291</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="I22" s="10">
-        <f>I21+1</f>
-        <v>2</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" ref="I23:I26" si="3">I22+1</f>
-        <v>3</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>861</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <f>A33+1</f>
-        <v>2</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <f t="shared" ref="A35:A48" si="4">A34+1</f>
-        <v>3</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -19697,570 +20750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>768</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K22" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K25" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K26" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K27" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K28" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K29" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K30" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K31" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K32" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K33" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K34" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -21023,7 +21513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -21466,7 +21956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
   <sheetViews>
@@ -21822,653 +22312,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D6" t="s">
-        <v>651</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:E8" si="0">E6+1</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <f>A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <f>A11+1</f>
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <f>A12+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <f t="shared" ref="A14:A36" si="1">A13+1</f>
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37068,6 +36911,653 @@
   <autoFilter ref="A1:O331"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E8" si="0">E6+1</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <f>A10+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <f>A12+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <f t="shared" ref="A14:A36" si="1">A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
